--- a/gestion/Diagrama de Gantt.xlsx
+++ b/gestion/Diagrama de Gantt.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Semana 1</t>
   </si>
@@ -46,6 +46,30 @@
   </si>
   <si>
     <t>Analisis de Requerimientos</t>
+  </si>
+  <si>
+    <t>Especificación de arquitectura del sistema</t>
+  </si>
+  <si>
+    <t>Especificacion de arquitectura de datos</t>
+  </si>
+  <si>
+    <t>Diseño UX/UI</t>
+  </si>
+  <si>
+    <t>Desarrollo del servicio de cursos (BACKEND)</t>
+  </si>
+  <si>
+    <t>Implementación de interfaz de cursos.</t>
+  </si>
+  <si>
+    <t>Desarrollo del servicio de usuarios (BACKEND)</t>
+  </si>
+  <si>
+    <t>Pruebas del servicio de cursos</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
   </si>
 </sst>
 </file>
@@ -61,15 +85,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -77,14 +107,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -366,219 +510,324 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AH5"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="5" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="12.42578125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-    </row>
-    <row r="2" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1" t="s">
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1" t="s">
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-    </row>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C3">
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="C3" s="4">
         <v>16</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>17</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>18</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>19</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>20</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="10">
         <v>21</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="4">
         <v>22</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="4">
         <v>23</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="4">
         <v>24</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="4">
         <v>25</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="4">
         <v>26</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="4">
         <v>27</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="4">
         <v>28</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="4">
         <v>29</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="4">
         <v>30</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="4">
         <v>31</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="4">
         <v>1</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="4">
         <v>2</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="4">
         <v>3</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="4">
         <v>4</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="4">
         <v>5</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="4">
         <v>6</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="4">
         <v>7</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="4">
         <v>8</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="4">
         <v>9</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="4">
         <v>10</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="4">
         <v>11</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="4">
         <v>12</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="4">
         <v>13</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="4">
         <v>14</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="4">
         <v>15</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="H13" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="C1:R1"/>
+    <mergeCell ref="S1:AH1"/>
+    <mergeCell ref="A4:A12"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="I2:O2"/>
     <mergeCell ref="P2:V2"/>
     <mergeCell ref="W2:AC2"/>
     <mergeCell ref="AD2:AH2"/>
-    <mergeCell ref="C1:R1"/>
-    <mergeCell ref="S1:AH1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
